--- a/data-raw/crop_reports.xlsx
+++ b/data-raw/crop_reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/klamath/klamathAgData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A532C5-1ABF-8B4D-A45F-5E8C2C85B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A0D31-5E4B-014F-A1C8-DF2DD696A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="1680" windowWidth="28460" windowHeight="15700" xr2:uid="{1B09B5AE-9B4E-2540-A0D9-8AF8FCE3095B}"/>
+    <workbookView xWindow="25760" yWindow="660" windowWidth="35960" windowHeight="20520" activeTab="5" xr2:uid="{1B09B5AE-9B4E-2540-A0D9-8AF8FCE3095B}"/>
   </bookViews>
   <sheets>
     <sheet name="crop_statistics" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="130">
   <si>
     <t>Category</t>
   </si>
@@ -276,6 +276,9 @@
     <t>OTHER VEGETABLES (Garlic)</t>
   </si>
   <si>
+    <t>TOTAL MISCELLANEOUS FIELD CROPS</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
@@ -412,6 +415,21 @@
   </si>
   <si>
     <t>AF-Water Delivered</t>
+  </si>
+  <si>
+    <t>LETTUCE</t>
+  </si>
+  <si>
+    <t>OTHER FRUITS (Specify)</t>
+  </si>
+  <si>
+    <t>OTHER FORAGE (Oat Hay)</t>
+  </si>
+  <si>
+    <t>WINE GRAPES</t>
+  </si>
+  <si>
+    <t>Seeds</t>
   </si>
 </sst>
 </file>
@@ -774,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FFABCD-945A-CA45-A43D-2DF892A32A80}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1051,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>320007</v>
@@ -1052,12 +1070,12 @@
         <v>2019</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>28803</v>
@@ -1076,12 +1094,12 @@
         <v>2019</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>28398</v>
@@ -1100,7 +1118,7 @@
         <v>2019</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1110,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEC8B7-4AEA-6C46-8994-85276059A5B6}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -1132,24 +1150,24 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1161,18 +1179,18 @@
         <v>63563.8</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2">
         <v>2019</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1184,18 +1202,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>2019</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1207,18 +1225,18 @@
         <v>63563.8</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>2019</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1230,18 +1248,18 @@
         <v>8364.7199999999993</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>2019</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1253,18 +1271,18 @@
         <v>71928.52</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>2019</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1277,18 +1295,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7">
         <v>2019</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1301,18 +1319,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8">
         <v>2019</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1325,18 +1343,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9">
         <v>2019</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1349,18 +1367,18 @@
         <v>1374</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10">
         <v>2019</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1373,18 +1391,18 @@
         <v>73302.52</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11">
         <v>2019</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1397,18 +1415,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12">
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1421,35 +1439,35 @@
         <v>73302.52</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13">
         <v>2019</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14">
         <v>2019</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1461,18 +1479,18 @@
         <v>125913.73</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <v>2019</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1484,18 +1502,18 @@
         <v>1311</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16">
         <v>2019</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1507,18 +1525,18 @@
         <v>127224.73</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17">
         <v>2019</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1530,18 +1548,18 @@
         <v>4411.7</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18">
         <v>2019</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1553,52 +1571,52 @@
         <v>131636.43</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19">
         <v>2019</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20">
         <v>2019</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21">
         <v>2019</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1611,18 +1629,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22">
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1635,18 +1653,18 @@
         <v>6778.04</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23">
         <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1659,18 +1677,18 @@
         <v>138414.47</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24">
         <v>2019</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1683,18 +1701,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25">
         <v>2019</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1707,30 +1725,615 @@
         <v>138414.47</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26">
         <v>2019</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G27">
         <v>2019</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>62573.9</v>
+      </c>
+      <c r="E28">
+        <v>62573.9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>1276</v>
+      </c>
+      <c r="E29">
+        <v>1276</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>63849.9</v>
+      </c>
+      <c r="E30">
+        <v>63849.9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>3515</v>
+      </c>
+      <c r="E31">
+        <v>3515</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>67364.899999999994</v>
+      </c>
+      <c r="E32">
+        <v>67364.899999999994</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>C33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E39" si="2">C34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+      <c r="H35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>1118</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>1118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+      <c r="H36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>68482.899999999994</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>68482.899999999994</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>68482.899999999994</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>68482.899999999994</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>119857.53</v>
+      </c>
+      <c r="E41">
+        <v>119857.53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>2494</v>
+      </c>
+      <c r="E42">
+        <v>2494</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+      <c r="H42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>122351.53</v>
+      </c>
+      <c r="E43">
+        <v>122351.53</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>8220</v>
+      </c>
+      <c r="E44">
+        <v>8220</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44">
+        <v>2018</v>
+      </c>
+      <c r="H44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>130571.53</v>
+      </c>
+      <c r="E45">
+        <v>130571.53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <f>C46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+      <c r="H46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E52" si="3">C47</f>
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+      <c r="H48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>6014.74</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>6014.74</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+      <c r="H49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>136586.26999999999</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>136586.26999999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+      <c r="H50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+      <c r="H51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>136586.26999999999</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>136586.26999999999</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+      <c r="H52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1740,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FBCFAB-AE5E-724C-BAD3-2EBB3920BFDF}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1762,13 +2365,13 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -1782,7 +2385,7 @@
         <v>89309504.519999996</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -1793,7 +2396,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -1804,7 +2407,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -1815,7 +2418,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -1829,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -1843,7 +2446,7 @@
         <v>89309504.519999996</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -1857,7 +2460,7 @@
         <v>63563.8</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -1871,7 +2474,7 @@
         <v>1405.04</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -1885,7 +2488,7 @@
         <v>111141925.19</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -1896,7 +2499,7 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -1907,7 +2510,7 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -1918,7 +2521,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -1932,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14">
         <v>2019</v>
@@ -1946,7 +2549,7 @@
         <v>111141925.19</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15">
         <v>2019</v>
@@ -1960,7 +2563,7 @@
         <v>127224.73</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16">
         <v>2019</v>
@@ -1974,10 +2577,216 @@
         <v>873.59</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>90729348.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>90729348.25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>63849.9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>1420.98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>96026484.650000006</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>96026484.650000006</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>122351.53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>784.84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -1987,32 +2796,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C5FAAF-9C42-7146-89CF-CD546F801C8A}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -2026,7 +2836,7 @@
         <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -2040,7 +2850,7 @@
         <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -2054,7 +2864,7 @@
         <v>1374</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -2068,7 +2878,7 @@
         <v>73302.52</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -2082,7 +2892,7 @@
         <v>704</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -2096,7 +2906,7 @@
         <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -2110,7 +2920,7 @@
         <v>6778.04</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -2124,10 +2934,122 @@
         <v>138414.47</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>290</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>1118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>68482.899999999994</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>704</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>250</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>6014.74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>136586.26999999999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -2137,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40720FFB-9A99-7949-8B75-22B8721A2274}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2154,7 +3076,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -2181,7 +3103,7 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -2189,7 +3111,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2216,7 +3138,7 @@
         <v>3118828.5</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>2019</v>
@@ -2224,7 +3146,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -2251,7 +3173,7 @@
         <v>2495904.14</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>2019</v>
@@ -2259,7 +3181,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -2286,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>2019</v>
@@ -2294,7 +3216,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -2321,7 +3243,7 @@
         <v>15321.6</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>2019</v>
@@ -2329,7 +3251,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -2356,7 +3278,7 @@
         <v>7418213.2800000003</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>2019</v>
@@ -2364,7 +3286,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -2391,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>2019</v>
@@ -2399,7 +3321,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -2426,7 +3348,7 @@
         <v>31253300</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8">
         <v>2019</v>
@@ -2434,7 +3356,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -2461,7 +3383,7 @@
         <v>2032992</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <v>2019</v>
@@ -2469,7 +3391,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -2496,7 +3418,7 @@
         <v>179100</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10">
         <v>2019</v>
@@ -2504,7 +3426,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -2531,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11">
         <v>2019</v>
@@ -2539,7 +3461,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -2560,7 +3482,7 @@
         <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12">
         <v>2019</v>
@@ -2568,7 +3490,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -2595,7 +3517,7 @@
         <v>3376800</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>2019</v>
@@ -2603,7 +3525,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -2630,7 +3552,7 @@
         <v>571250</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14">
         <v>2019</v>
@@ -2638,7 +3560,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -2656,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15">
         <v>2019</v>
@@ -2664,7 +3586,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -2691,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16">
         <v>2019</v>
@@ -2699,7 +3621,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -2726,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17">
         <v>2019</v>
@@ -2734,7 +3656,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -2761,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18">
         <v>2019</v>
@@ -2769,7 +3691,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -2796,7 +3718,7 @@
         <v>9198750</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19">
         <v>2019</v>
@@ -2804,7 +3726,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -2831,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20">
         <v>2019</v>
@@ -2839,7 +3761,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -2866,7 +3788,7 @@
         <v>16036920</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21">
         <v>2019</v>
@@ -2874,7 +3796,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -2901,7 +3823,7 @@
         <v>13113375</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22">
         <v>2019</v>
@@ -2909,7 +3831,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -2936,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>2019</v>
@@ -2944,7 +3866,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -2971,7 +3893,7 @@
         <v>498750</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24">
         <v>2019</v>
@@ -2979,16 +3901,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>300000</v>
@@ -3006,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25">
         <v>2019</v>
@@ -3014,16 +3936,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3041,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26">
         <v>2019</v>
@@ -3049,10 +3971,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3076,7 +3998,7 @@
         <v>300</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27">
         <v>2019</v>
@@ -3084,10 +4006,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3111,7 +4033,7 @@
         <v>5950</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28">
         <v>2019</v>
@@ -3119,10 +4041,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3146,7 +4068,7 @@
         <v>500</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29">
         <v>2019</v>
@@ -3154,10 +4076,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3166,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30">
         <v>2019</v>
@@ -3174,10 +4096,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3186,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>2019</v>
@@ -3194,10 +4116,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3209,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32">
         <v>2019</v>
@@ -3217,10 +4139,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3232,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33">
         <v>2019</v>
@@ -3240,10 +4162,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34">
         <v>3526</v>
@@ -3267,7 +4189,7 @@
         <v>1768289</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K34">
         <v>2019</v>
@@ -3275,7 +4197,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -3302,7 +4224,7 @@
         <v>3000751.8</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>2019</v>
@@ -3310,7 +4232,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -3337,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K36">
         <v>2019</v>
@@ -3345,7 +4267,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -3372,7 +4294,7 @@
         <v>406387.20000000001</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>2019</v>
@@ -3380,7 +4302,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>54</v>
@@ -3407,7 +4329,7 @@
         <v>5722535.7000000002</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K38">
         <v>2019</v>
@@ -3415,7 +4337,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
         <v>55</v>
@@ -3442,7 +4364,7 @@
         <v>619200</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K39">
         <v>2019</v>
@@ -3450,7 +4372,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -3477,7 +4399,7 @@
         <v>45896064.5</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K40">
         <v>2019</v>
@@ -3485,7 +4407,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
@@ -3512,7 +4434,7 @@
         <v>5053676.0599999996</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K41">
         <v>2019</v>
@@ -3520,7 +4442,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -3547,7 +4469,7 @@
         <v>4106455.93</v>
       </c>
       <c r="J42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K42">
         <v>2019</v>
@@ -3555,10 +4477,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43">
         <v>659</v>
@@ -3582,7 +4504,7 @@
         <v>812217.5</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K43">
         <v>2019</v>
@@ -3590,10 +4512,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44">
         <v>247.5</v>
@@ -3605,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K44">
         <v>2019</v>
@@ -3613,10 +4535,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45">
         <v>39</v>
@@ -3625,7 +4547,7 @@
         <v>69</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K45">
         <v>2019</v>
@@ -3633,7 +4555,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
@@ -3660,7 +4582,7 @@
         <v>137700</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K46">
         <v>2019</v>
@@ -3668,13 +4590,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K47">
         <v>2019</v>
@@ -3682,10 +4604,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48">
         <v>133</v>
@@ -3703,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K48">
         <v>2019</v>
@@ -3711,16 +4633,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
       </c>
       <c r="J49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K49">
         <v>2019</v>
@@ -3728,7 +4650,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -3746,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K50">
         <v>2019</v>
@@ -3754,10 +4676,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -3772,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K51">
         <v>2019</v>
@@ -3780,7 +4702,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>72</v>
@@ -3807,7 +4729,7 @@
         <v>3434646</v>
       </c>
       <c r="J52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K52">
         <v>2019</v>
@@ -3815,7 +4737,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
@@ -3824,7 +4746,7 @@
         <v>69</v>
       </c>
       <c r="J53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K53">
         <v>2019</v>
@@ -3832,7 +4754,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
         <v>74</v>
@@ -3859,7 +4781,7 @@
         <v>25057269</v>
       </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K54">
         <v>2019</v>
@@ -3867,7 +4789,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
@@ -3894,7 +4816,7 @@
         <v>8292982.5</v>
       </c>
       <c r="J55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K55">
         <v>2019</v>
@@ -3902,7 +4824,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -3929,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K56">
         <v>2019</v>
@@ -3937,16 +4859,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57">
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E57">
         <v>350</v>
@@ -3964,24 +4886,24 @@
         <v>6615000</v>
       </c>
       <c r="J57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K57">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58">
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E58">
         <v>35000</v>
@@ -3999,35 +4921,35 @@
         <v>218750</v>
       </c>
       <c r="J58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>69</v>
       </c>
       <c r="J59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K59">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4051,52 +4973,52 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
       </c>
       <c r="J61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K61">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
         <v>69</v>
       </c>
       <c r="J62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K62">
-        <v>2025</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4108,18 +5030,18 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K63">
-        <v>2026</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4128,18 +5050,18 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K64">
-        <v>2027</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4148,38 +5070,1989 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K65">
-        <v>2028</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>108</v>
+      </c>
+      <c r="K66">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67">
+        <v>7579</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>122.92</v>
+      </c>
+      <c r="F67">
+        <v>931585.42</v>
+      </c>
+      <c r="G67">
+        <v>4.08</v>
+      </c>
+      <c r="H67">
+        <v>501.5</v>
+      </c>
+      <c r="I67">
+        <v>3800868.5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>83</v>
+      </c>
+      <c r="K67">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68">
+        <v>3980</v>
+      </c>
+      <c r="D68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>122.92</v>
+      </c>
+      <c r="F68">
+        <v>489208.33</v>
+      </c>
+      <c r="G68">
+        <v>3.48</v>
+      </c>
+      <c r="H68">
+        <v>427.75</v>
+      </c>
+      <c r="I68">
+        <v>1702445</v>
+      </c>
+      <c r="J68" t="s">
+        <v>83</v>
+      </c>
+      <c r="K68">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>150</v>
+      </c>
+      <c r="F70">
+        <v>16500</v>
+      </c>
+      <c r="G70">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="H70">
+        <v>364.8</v>
+      </c>
+      <c r="I70">
+        <v>40128</v>
+      </c>
+      <c r="J70" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71">
+        <v>10659</v>
+      </c>
+      <c r="D71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71">
+        <v>121.67</v>
+      </c>
+      <c r="F71">
+        <v>1296845</v>
+      </c>
+      <c r="G71">
+        <v>5.4</v>
+      </c>
+      <c r="H71">
+        <v>657</v>
+      </c>
+      <c r="I71">
+        <v>7002963</v>
+      </c>
+      <c r="J71" t="s">
+        <v>83</v>
+      </c>
+      <c r="K71">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72">
+        <v>83.33</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>3.6</v>
+      </c>
+      <c r="H72">
+        <v>300</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>83</v>
+      </c>
+      <c r="K72">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73">
+        <v>23843</v>
+      </c>
+      <c r="D73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73">
+        <v>6.5</v>
+      </c>
+      <c r="F73">
+        <v>154979.5</v>
+      </c>
+      <c r="G73">
+        <v>200</v>
+      </c>
+      <c r="H73">
+        <v>1300</v>
+      </c>
+      <c r="I73">
+        <v>30995900</v>
+      </c>
+      <c r="J73" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74">
+        <v>1695</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74">
+        <v>4.5</v>
+      </c>
+      <c r="F74">
+        <v>7627.5</v>
+      </c>
+      <c r="G74">
+        <v>195</v>
+      </c>
+      <c r="H74">
+        <v>877.5</v>
+      </c>
+      <c r="I74">
+        <v>1487362.5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>83</v>
+      </c>
+      <c r="K74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75">
+        <v>2136.9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>10684.5</v>
+      </c>
+      <c r="G75">
+        <v>22.5</v>
+      </c>
+      <c r="H75">
+        <v>112.5</v>
+      </c>
+      <c r="I75">
+        <v>240401.25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <v>145</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>1450</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>83</v>
+      </c>
+      <c r="K76">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>63</v>
+      </c>
+      <c r="J77" t="s">
+        <v>83</v>
+      </c>
+      <c r="K77">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78">
+        <v>2077</v>
+      </c>
+      <c r="D78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78">
+        <v>90</v>
+      </c>
+      <c r="F78">
+        <v>186930</v>
+      </c>
+      <c r="G78">
+        <v>20</v>
+      </c>
+      <c r="H78">
+        <v>1800</v>
+      </c>
+      <c r="I78">
+        <v>3738600</v>
+      </c>
+      <c r="J78" t="s">
+        <v>83</v>
+      </c>
+      <c r="K78">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79">
+        <v>448</v>
+      </c>
+      <c r="D79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79">
+        <v>2.5</v>
+      </c>
+      <c r="F79">
+        <v>1120</v>
+      </c>
+      <c r="G79">
+        <v>500</v>
+      </c>
+      <c r="H79">
+        <v>1250</v>
+      </c>
+      <c r="I79">
+        <v>560000</v>
+      </c>
+      <c r="J79" t="s">
+        <v>83</v>
+      </c>
+      <c r="K79">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>83</v>
+      </c>
+      <c r="K80">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82">
+        <v>520</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82">
+        <v>65</v>
+      </c>
+      <c r="F82">
+        <v>33800</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>6500</v>
+      </c>
+      <c r="I82">
+        <v>3380000</v>
+      </c>
+      <c r="J82" t="s">
+        <v>83</v>
+      </c>
+      <c r="K82">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>83</v>
+      </c>
+      <c r="K83">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84">
+        <v>2096</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84">
+        <v>446</v>
+      </c>
+      <c r="F84">
+        <v>934816</v>
+      </c>
+      <c r="G84">
+        <v>7.5</v>
+      </c>
+      <c r="H84">
+        <v>3345</v>
+      </c>
+      <c r="I84">
+        <v>7011120</v>
+      </c>
+      <c r="J84" t="s">
+        <v>83</v>
+      </c>
+      <c r="K84">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85">
+        <v>1.3</v>
+      </c>
+      <c r="F85">
+        <v>23.4</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>83</v>
+      </c>
+      <c r="K85">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86">
+        <v>3651</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86">
+        <v>465</v>
+      </c>
+      <c r="F86">
+        <v>1697715</v>
+      </c>
+      <c r="G86">
+        <v>9</v>
+      </c>
+      <c r="H86">
+        <v>4185</v>
+      </c>
+      <c r="I86">
+        <v>15279435</v>
+      </c>
+      <c r="J86" t="s">
+        <v>83</v>
+      </c>
+      <c r="K86">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87">
+        <v>3697</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87">
+        <v>500</v>
+      </c>
+      <c r="F87">
+        <v>1848500</v>
+      </c>
+      <c r="G87">
+        <v>8.25</v>
+      </c>
+      <c r="H87">
+        <v>4125</v>
+      </c>
+      <c r="I87">
+        <v>15250125</v>
+      </c>
+      <c r="J87" t="s">
+        <v>83</v>
+      </c>
+      <c r="K87">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>83</v>
+      </c>
+      <c r="K88">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89">
+        <v>64</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89">
+        <v>150</v>
+      </c>
+      <c r="F89">
+        <v>9600</v>
+      </c>
+      <c r="G89">
+        <v>25</v>
+      </c>
+      <c r="H89">
+        <v>3750</v>
+      </c>
+      <c r="I89">
+        <v>240000</v>
+      </c>
+      <c r="J89" t="s">
+        <v>83</v>
+      </c>
+      <c r="K89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90">
+        <v>350</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>140</v>
+      </c>
+      <c r="H90">
+        <v>49000</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>83</v>
+      </c>
+      <c r="K90">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.3</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>83</v>
+      </c>
+      <c r="K91">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>104</v>
       </c>
-      <c r="B66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92">
+        <v>1.25</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>240</v>
+      </c>
+      <c r="H92">
+        <v>300</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>83</v>
+      </c>
+      <c r="K92">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>83</v>
+      </c>
+      <c r="K93">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>400</v>
+      </c>
+      <c r="D94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1.25</v>
+      </c>
+      <c r="G94">
+        <v>500</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>83</v>
+      </c>
+      <c r="K94">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>83</v>
+      </c>
+      <c r="K95">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>83</v>
+      </c>
+      <c r="K96">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97">
+        <v>1461.4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <v>104.48</v>
+      </c>
+      <c r="F97">
+        <v>152685.85</v>
+      </c>
+      <c r="G97">
+        <v>4.08</v>
+      </c>
+      <c r="H97">
+        <v>501.5</v>
+      </c>
+      <c r="I97">
+        <v>732892.1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>108</v>
+      </c>
+      <c r="K97">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98">
+        <v>8013.2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98">
+        <v>104.48</v>
+      </c>
+      <c r="F98">
+        <v>837212.46</v>
+      </c>
+      <c r="G98">
+        <v>3.48</v>
+      </c>
+      <c r="H98">
+        <v>427.75</v>
+      </c>
+      <c r="I98">
+        <v>3427646.3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>108</v>
+      </c>
+      <c r="K98">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>108</v>
+      </c>
+      <c r="K99">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100">
+        <v>1011.1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100">
+        <v>127.5</v>
+      </c>
+      <c r="F100">
+        <v>128915.25</v>
+      </c>
+      <c r="G100">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H100">
+        <v>364.8</v>
+      </c>
+      <c r="I100">
+        <v>368849.28</v>
+      </c>
+      <c r="J100" t="s">
+        <v>108</v>
+      </c>
+      <c r="K100">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101">
+        <v>12075.5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>50</v>
+      </c>
+      <c r="E101">
+        <v>103.42</v>
+      </c>
+      <c r="F101">
+        <v>1248807.96</v>
+      </c>
+      <c r="G101">
+        <v>5.4</v>
+      </c>
+      <c r="H101">
+        <v>657</v>
+      </c>
+      <c r="I101">
+        <v>7933603.5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>108</v>
+      </c>
+      <c r="K101">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102">
+        <v>1379</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102">
+        <v>70.83</v>
+      </c>
+      <c r="F102">
+        <v>97679.17</v>
+      </c>
+      <c r="G102">
+        <v>3.6</v>
+      </c>
+      <c r="H102">
+        <v>300</v>
+      </c>
+      <c r="I102">
+        <v>413700</v>
+      </c>
+      <c r="J102" t="s">
+        <v>108</v>
+      </c>
+      <c r="K102">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103">
+        <v>41628</v>
+      </c>
+      <c r="D103" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103">
+        <v>5.53</v>
+      </c>
+      <c r="F103">
+        <v>229994.7</v>
+      </c>
+      <c r="G103">
+        <v>200</v>
+      </c>
+      <c r="H103">
+        <v>1105</v>
+      </c>
+      <c r="I103">
+        <v>45998940</v>
+      </c>
+      <c r="J103" t="s">
+        <v>108</v>
+      </c>
+      <c r="K103">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104">
+        <v>8713.1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104">
+        <v>3.83</v>
+      </c>
+      <c r="F104">
+        <v>33327.61</v>
+      </c>
+      <c r="G104">
+        <v>195</v>
+      </c>
+      <c r="H104">
+        <v>745.88</v>
+      </c>
+      <c r="I104">
+        <v>6498883.46</v>
+      </c>
+      <c r="J104" t="s">
+        <v>108</v>
+      </c>
+      <c r="K104">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105">
+        <v>39186.53</v>
+      </c>
+      <c r="D105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105">
+        <v>4.25</v>
+      </c>
+      <c r="F105">
+        <v>166542.75</v>
+      </c>
+      <c r="G105">
+        <v>22.5</v>
+      </c>
+      <c r="H105">
+        <v>95.63</v>
+      </c>
+      <c r="I105">
+        <v>3747211.93</v>
+      </c>
+      <c r="J105" t="s">
+        <v>108</v>
+      </c>
+      <c r="K105">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106">
+        <v>123.25</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>1232.5</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>108</v>
+      </c>
+      <c r="K106">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107">
+        <v>300</v>
+      </c>
+      <c r="D107" t="s">
+        <v>57</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>1500</v>
+      </c>
+      <c r="G107">
+        <v>195</v>
+      </c>
+      <c r="H107">
+        <v>975</v>
+      </c>
+      <c r="I107">
+        <v>292500</v>
+      </c>
+      <c r="J107" t="s">
+        <v>108</v>
+      </c>
+      <c r="K107">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>92</v>
+      </c>
+      <c r="B108" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108">
+        <v>90</v>
+      </c>
+      <c r="D108" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108">
+        <v>76.5</v>
+      </c>
+      <c r="F108">
+        <v>6885</v>
+      </c>
+      <c r="G108">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>1530</v>
+      </c>
+      <c r="I108">
+        <v>137700</v>
+      </c>
+      <c r="J108" t="s">
+        <v>108</v>
+      </c>
+      <c r="K108">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="J109" t="s">
+        <v>108</v>
+      </c>
+      <c r="K109">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>108</v>
+      </c>
+      <c r="K110">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111">
+        <v>90</v>
+      </c>
+      <c r="F111">
+        <v>137700</v>
+      </c>
+      <c r="J111" t="s">
+        <v>108</v>
+      </c>
+      <c r="K111">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="J112" t="s">
+        <v>108</v>
+      </c>
+      <c r="K112">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>108</v>
+      </c>
+      <c r="K113">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>108</v>
+      </c>
+      <c r="K114">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115">
+        <v>1375</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115">
+        <v>379.1</v>
+      </c>
+      <c r="F115">
+        <v>521262.5</v>
+      </c>
+      <c r="G115">
+        <v>7.5</v>
+      </c>
+      <c r="H115">
+        <v>2843.25</v>
+      </c>
+      <c r="I115">
+        <v>3909468.75</v>
+      </c>
+      <c r="J115" t="s">
+        <v>108</v>
+      </c>
+      <c r="K115">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="J116" t="s">
+        <v>108</v>
+      </c>
+      <c r="K116">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117">
+        <v>3568.7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117">
+        <v>395.25</v>
+      </c>
+      <c r="F117">
+        <v>1410528.68</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>3557.25</v>
+      </c>
+      <c r="I117">
+        <v>12694758.08</v>
+      </c>
+      <c r="J117" t="s">
+        <v>108</v>
+      </c>
+      <c r="K117">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118">
+        <v>781</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118">
+        <v>425</v>
+      </c>
+      <c r="F118">
+        <v>331925</v>
+      </c>
+      <c r="G118">
+        <v>8.25</v>
+      </c>
+      <c r="H118">
+        <v>3506.25</v>
+      </c>
+      <c r="I118">
+        <v>2738381.25</v>
+      </c>
+      <c r="J118" t="s">
+        <v>108</v>
+      </c>
+      <c r="K118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>25</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>108</v>
+      </c>
+      <c r="K119">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C120">
+        <v>135</v>
+      </c>
+      <c r="E120">
+        <v>350</v>
+      </c>
+      <c r="F120">
+        <v>47250</v>
+      </c>
+      <c r="G120">
+        <v>140</v>
+      </c>
+      <c r="H120">
+        <v>49000</v>
+      </c>
+      <c r="I120">
+        <v>6615000</v>
+      </c>
+      <c r="J120" t="s">
+        <v>108</v>
+      </c>
+      <c r="K120">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
         <v>107</v>
       </c>
-      <c r="K66">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J67" t="s">
-        <v>107</v>
-      </c>
-      <c r="K67">
-        <v>2030</v>
+      <c r="E121">
+        <v>35000</v>
+      </c>
+      <c r="F121">
+        <v>875000</v>
+      </c>
+      <c r="G121">
+        <v>0.25</v>
+      </c>
+      <c r="H121">
+        <v>8750</v>
+      </c>
+      <c r="I121">
+        <v>218750</v>
+      </c>
+      <c r="J121" t="s">
+        <v>108</v>
+      </c>
+      <c r="K121">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>96</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="J122" t="s">
+        <v>108</v>
+      </c>
+      <c r="K122">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123">
+        <v>71</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123">
+        <v>400</v>
+      </c>
+      <c r="F123">
+        <v>28400</v>
+      </c>
+      <c r="G123">
+        <v>10.5</v>
+      </c>
+      <c r="H123">
+        <v>4200</v>
+      </c>
+      <c r="I123">
+        <v>298200</v>
+      </c>
+      <c r="J123" t="s">
+        <v>108</v>
+      </c>
+      <c r="K123">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="J124" t="s">
+        <v>108</v>
+      </c>
+      <c r="K124">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="J125" t="s">
+        <v>108</v>
+      </c>
+      <c r="K125">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>105</v>
+      </c>
+      <c r="B126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>108</v>
+      </c>
+      <c r="K126">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>108</v>
+      </c>
+      <c r="K127">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>108</v>
+      </c>
+      <c r="K128">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>108</v>
+      </c>
+      <c r="K129">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/crop_reports.xlsx
+++ b/data-raw/crop_reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/klamath/klamathAgData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A0D31-5E4B-014F-A1C8-DF2DD696A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098AD56A-B141-E141-8C38-C272F466A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25760" yWindow="660" windowWidth="35960" windowHeight="20520" activeTab="5" xr2:uid="{1B09B5AE-9B4E-2540-A0D9-8AF8FCE3095B}"/>
+    <workbookView xWindow="25760" yWindow="500" windowWidth="50880" windowHeight="19360" activeTab="1" xr2:uid="{1B09B5AE-9B4E-2540-A0D9-8AF8FCE3095B}"/>
   </bookViews>
   <sheets>
     <sheet name="crop_statistics" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="128">
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>% Change</t>
   </si>
   <si>
     <t>WATER RENTAL</t>
@@ -472,10 +466,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FFABCD-945A-CA45-A43D-2DF892A32A80}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,215 +794,355 @@
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2018</v>
-      </c>
-      <c r="C1">
-        <v>2019</v>
+        <v>2019</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2">
+        <v>804</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>12776</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <v>20378</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>74668</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45816</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>37963</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>111141925</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>89309505</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>952</v>
       </c>
-      <c r="C2">
-        <v>804</v>
-      </c>
-      <c r="D2">
-        <v>-148</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-0.16</v>
-      </c>
-      <c r="F2">
-        <v>2019</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>11735</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>15169</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>11735</v>
-      </c>
-      <c r="C3">
-        <v>12776</v>
-      </c>
-      <c r="D3">
-        <v>1041</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B13">
+        <v>75879</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>15169</v>
-      </c>
-      <c r="C4">
-        <v>20378</v>
-      </c>
-      <c r="D4">
-        <v>5210</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="F4">
-        <v>2019</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B14">
+        <v>46268</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>75879</v>
-      </c>
-      <c r="C5">
-        <v>74668</v>
-      </c>
-      <c r="D5">
-        <v>-1211</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="F5">
-        <v>2019</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B15">
+        <v>41323</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>46268</v>
-      </c>
-      <c r="C6">
-        <v>45816</v>
-      </c>
-      <c r="D6">
-        <v>-452</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.01</v>
-      </c>
-      <c r="F6">
-        <v>2019</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B16">
+        <v>96026485</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>41323</v>
-      </c>
-      <c r="C7">
-        <v>37963</v>
-      </c>
-      <c r="D7">
-        <v>-3361</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-0.08</v>
-      </c>
-      <c r="F7">
-        <v>2019</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>96026485</v>
-      </c>
-      <c r="C8">
-        <v>111141925</v>
-      </c>
-      <c r="D8">
-        <v>15115441</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="F8">
-        <v>2019</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+      <c r="B17">
         <v>90729348</v>
       </c>
-      <c r="C9">
-        <v>89309505</v>
-      </c>
-      <c r="D9">
-        <v>-1419844</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="F9">
-        <v>2019</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E10" s="2"/>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1150</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4340</v>
+      </c>
+      <c r="C19">
+        <v>2017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>15070</v>
+      </c>
+      <c r="C20">
+        <v>2017</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>75929</v>
+      </c>
+      <c r="C21">
+        <v>2017</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>49336</v>
+      </c>
+      <c r="C22">
+        <v>2017</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>44035</v>
+      </c>
+      <c r="C23">
+        <v>2017</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>79770384</v>
+      </c>
+      <c r="C24">
+        <v>2017</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>84751781</v>
+      </c>
+      <c r="C25">
+        <v>2017</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1018,107 +1151,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4D91A1-4530-CE45-B4E8-FE55F027DBB1}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2018</v>
-      </c>
-      <c r="C1">
-        <v>2019</v>
+        <v>2019</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2">
+        <v>289000</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>26600</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>121</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <v>25200</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
         <v>320007</v>
       </c>
-      <c r="C2">
-        <v>289000</v>
-      </c>
-      <c r="D2">
-        <f>C2-B2</f>
-        <v>-31007</v>
-      </c>
-      <c r="E2">
-        <v>-10</v>
-      </c>
-      <c r="F2">
-        <v>2019</v>
-      </c>
-      <c r="G2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
         <v>122</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6">
         <v>28803</v>
       </c>
-      <c r="C3">
-        <v>26600</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">C3-B3</f>
-        <v>-2203</v>
-      </c>
-      <c r="E3">
-        <v>-8</v>
-      </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4">
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7">
         <v>28398</v>
       </c>
-      <c r="C4">
-        <v>25200</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-3198</v>
-      </c>
-      <c r="E4">
-        <v>-11</v>
-      </c>
-      <c r="F4">
-        <v>2019</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8">
+        <v>412117</v>
+      </c>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>27450</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <v>27807</v>
+      </c>
+      <c r="C10">
+        <v>2017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1141,36 +1319,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>63563.8</v>
@@ -1179,21 +1357,21 @@
         <v>63563.8</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>2019</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1202,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>2019</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>63563.8</v>
@@ -1225,21 +1403,21 @@
         <v>63563.8</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4">
         <v>2019</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>8364.7199999999993</v>
@@ -1248,21 +1426,21 @@
         <v>8364.7199999999993</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5">
         <v>2019</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>71928.52</v>
@@ -1271,21 +1449,21 @@
         <v>71928.52</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6">
         <v>2019</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1295,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7">
         <v>2019</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1319,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>2019</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1343,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>2019</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1374</v>
@@ -1367,21 +1545,21 @@
         <v>1374</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10">
         <v>2019</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>73302.52</v>
@@ -1391,21 +1569,21 @@
         <v>73302.52</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <v>2019</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1415,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12">
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>73302.52</v>
@@ -1439,38 +1617,38 @@
         <v>73302.52</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>2019</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14">
         <v>2019</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>125913.73</v>
@@ -1479,21 +1657,21 @@
         <v>125913.73</v>
       </c>
       <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15">
+        <v>2019</v>
+      </c>
+      <c r="H15" t="s">
         <v>108</v>
-      </c>
-      <c r="G15">
-        <v>2019</v>
-      </c>
-      <c r="H15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1311</v>
@@ -1502,21 +1680,21 @@
         <v>1311</v>
       </c>
       <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16">
+        <v>2019</v>
+      </c>
+      <c r="H16" t="s">
         <v>108</v>
-      </c>
-      <c r="G16">
-        <v>2019</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>127224.73</v>
@@ -1525,21 +1703,21 @@
         <v>127224.73</v>
       </c>
       <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17">
+        <v>2019</v>
+      </c>
+      <c r="H17" t="s">
         <v>108</v>
-      </c>
-      <c r="G17">
-        <v>2019</v>
-      </c>
-      <c r="H17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>4411.7</v>
@@ -1548,21 +1726,21 @@
         <v>4411.7</v>
       </c>
       <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18">
+        <v>2019</v>
+      </c>
+      <c r="H18" t="s">
         <v>108</v>
-      </c>
-      <c r="G18">
-        <v>2019</v>
-      </c>
-      <c r="H18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>131636.43</v>
@@ -1571,55 +1749,55 @@
         <v>131636.43</v>
       </c>
       <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19">
+        <v>2019</v>
+      </c>
+      <c r="H19" t="s">
         <v>108</v>
-      </c>
-      <c r="G19">
-        <v>2019</v>
-      </c>
-      <c r="H19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20">
+        <v>2019</v>
+      </c>
+      <c r="H20" t="s">
         <v>108</v>
-      </c>
-      <c r="G20">
-        <v>2019</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21">
+        <v>2019</v>
+      </c>
+      <c r="H21" t="s">
         <v>108</v>
-      </c>
-      <c r="G21">
-        <v>2019</v>
-      </c>
-      <c r="H21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1629,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22">
+        <v>2019</v>
+      </c>
+      <c r="H22" t="s">
         <v>108</v>
-      </c>
-      <c r="G22">
-        <v>2019</v>
-      </c>
-      <c r="H22" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>6778.04</v>
@@ -1653,21 +1831,21 @@
         <v>6778.04</v>
       </c>
       <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23">
+        <v>2019</v>
+      </c>
+      <c r="H23" t="s">
         <v>108</v>
-      </c>
-      <c r="G23">
-        <v>2019</v>
-      </c>
-      <c r="H23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>138414.47</v>
@@ -1677,21 +1855,21 @@
         <v>138414.47</v>
       </c>
       <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24">
+        <v>2019</v>
+      </c>
+      <c r="H24" t="s">
         <v>108</v>
-      </c>
-      <c r="G24">
-        <v>2019</v>
-      </c>
-      <c r="H24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1701,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25">
+        <v>2019</v>
+      </c>
+      <c r="H25" t="s">
         <v>108</v>
-      </c>
-      <c r="G25">
-        <v>2019</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>138414.47</v>
@@ -1725,38 +1903,38 @@
         <v>138414.47</v>
       </c>
       <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26">
+        <v>2019</v>
+      </c>
+      <c r="H26" t="s">
         <v>108</v>
-      </c>
-      <c r="G26">
-        <v>2019</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27">
+        <v>2019</v>
+      </c>
+      <c r="H27" t="s">
         <v>108</v>
-      </c>
-      <c r="G27">
-        <v>2019</v>
-      </c>
-      <c r="H27" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>62573.9</v>
@@ -1765,21 +1943,21 @@
         <v>62573.9</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <v>2018</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>1276</v>
@@ -1788,21 +1966,21 @@
         <v>1276</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>63849.9</v>
@@ -1811,21 +1989,21 @@
         <v>63849.9</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30">
         <v>2018</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>3515</v>
@@ -1834,21 +2012,21 @@
         <v>3515</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G31">
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>67364.899999999994</v>
@@ -1857,21 +2035,21 @@
         <v>67364.899999999994</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32">
         <v>2018</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1881,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33">
         <v>2018</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1905,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34">
         <v>2018</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1929,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35">
         <v>2018</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>1118</v>
@@ -1953,21 +2131,21 @@
         <v>1118</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36">
         <v>2018</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>68482.899999999994</v>
@@ -1977,21 +2155,21 @@
         <v>68482.899999999994</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37">
         <v>2018</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2001,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38">
         <v>2018</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>68482.899999999994</v>
@@ -2025,38 +2203,38 @@
         <v>68482.899999999994</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39">
         <v>2018</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40">
         <v>2018</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>119857.53</v>
@@ -2065,21 +2243,21 @@
         <v>119857.53</v>
       </c>
       <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+      <c r="H41" t="s">
         <v>108</v>
-      </c>
-      <c r="G41">
-        <v>2018</v>
-      </c>
-      <c r="H41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>2494</v>
@@ -2088,21 +2266,21 @@
         <v>2494</v>
       </c>
       <c r="F42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+      <c r="H42" t="s">
         <v>108</v>
-      </c>
-      <c r="G42">
-        <v>2018</v>
-      </c>
-      <c r="H42" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>122351.53</v>
@@ -2111,21 +2289,21 @@
         <v>122351.53</v>
       </c>
       <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43" t="s">
         <v>108</v>
-      </c>
-      <c r="G43">
-        <v>2018</v>
-      </c>
-      <c r="H43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>8220</v>
@@ -2134,21 +2312,21 @@
         <v>8220</v>
       </c>
       <c r="F44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44">
+        <v>2018</v>
+      </c>
+      <c r="H44" t="s">
         <v>108</v>
-      </c>
-      <c r="G44">
-        <v>2018</v>
-      </c>
-      <c r="H44" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>130571.53</v>
@@ -2157,63 +2335,63 @@
         <v>130571.53</v>
       </c>
       <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="s">
         <v>108</v>
-      </c>
-      <c r="G45">
-        <v>2018</v>
-      </c>
-      <c r="H45" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <f>C46</f>
         <v>0</v>
       </c>
       <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+      <c r="H46" t="s">
         <v>108</v>
-      </c>
-      <c r="G46">
-        <v>2018</v>
-      </c>
-      <c r="H46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <f t="shared" ref="E47:E52" si="3">C47</f>
         <v>0</v>
       </c>
       <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="s">
         <v>108</v>
-      </c>
-      <c r="G47">
-        <v>2018</v>
-      </c>
-      <c r="H47" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2223,21 +2401,21 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+      <c r="H48" t="s">
         <v>108</v>
-      </c>
-      <c r="G48">
-        <v>2018</v>
-      </c>
-      <c r="H48" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>6014.74</v>
@@ -2247,21 +2425,21 @@
         <v>6014.74</v>
       </c>
       <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+      <c r="H49" t="s">
         <v>108</v>
-      </c>
-      <c r="G49">
-        <v>2018</v>
-      </c>
-      <c r="H49" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>136586.26999999999</v>
@@ -2271,21 +2449,21 @@
         <v>136586.26999999999</v>
       </c>
       <c r="F50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+      <c r="H50" t="s">
         <v>108</v>
-      </c>
-      <c r="G50">
-        <v>2018</v>
-      </c>
-      <c r="H50" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2295,21 +2473,21 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+      <c r="H51" t="s">
         <v>108</v>
-      </c>
-      <c r="G51">
-        <v>2018</v>
-      </c>
-      <c r="H51" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>136586.26999999999</v>
@@ -2319,21 +2497,21 @@
         <v>136586.26999999999</v>
       </c>
       <c r="F52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+      <c r="H52" t="s">
         <v>108</v>
-      </c>
-      <c r="G52">
-        <v>2018</v>
-      </c>
-      <c r="H52" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2359,33 +2537,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>89309504.519999996</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -2393,10 +2571,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -2404,10 +2582,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -2415,10 +2593,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -2426,13 +2604,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -2440,13 +2618,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>89309504.519999996</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -2454,13 +2632,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>63563.8</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -2468,13 +2646,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1405.04</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -2482,13 +2660,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>111141925.19</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -2496,10 +2674,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -2507,10 +2685,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -2518,10 +2696,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -2529,13 +2707,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>2019</v>
@@ -2543,13 +2721,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>111141925.19</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>2019</v>
@@ -2557,13 +2735,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>127224.73</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>2019</v>
@@ -2571,13 +2749,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>873.59</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>2019</v>
@@ -2585,13 +2763,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>90729348.25</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18">
         <v>2018</v>
@@ -2599,10 +2777,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>2018</v>
@@ -2610,10 +2788,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <v>2018</v>
@@ -2621,10 +2799,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21">
         <v>2018</v>
@@ -2632,13 +2810,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22">
         <v>2018</v>
@@ -2646,13 +2824,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>90729348.25</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <v>2018</v>
@@ -2660,13 +2838,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>63849.9</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24">
         <v>2018</v>
@@ -2674,13 +2852,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>1420.98</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25">
         <v>2018</v>
@@ -2688,13 +2866,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>96026484.650000006</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>2018</v>
@@ -2702,10 +2880,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -2713,10 +2891,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28">
         <v>2018</v>
@@ -2724,10 +2902,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>2018</v>
@@ -2735,13 +2913,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -2749,13 +2927,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>96026484.650000006</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -2763,13 +2941,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32">
         <v>122351.53</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32">
         <v>2018</v>
@@ -2777,13 +2955,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33">
         <v>784.84</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -2799,7 +2977,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2810,33 +2988,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -2844,13 +3022,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -2858,13 +3036,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1374</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -2872,13 +3050,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>73302.52</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -2886,13 +3064,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>704</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -2900,13 +3078,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -2914,13 +3092,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>6778.04</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -2928,13 +3106,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>138414.47</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -2942,13 +3120,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>290</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>2018</v>
@@ -2956,13 +3134,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>2018</v>
@@ -2970,13 +3148,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>1118</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <v>2018</v>
@@ -2984,13 +3162,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>68482.899999999994</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13">
         <v>2018</v>
@@ -2998,13 +3176,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>704</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>2018</v>
@@ -3012,13 +3190,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>2018</v>
@@ -3026,13 +3204,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>6014.74</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>2018</v>
@@ -3040,13 +3218,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>136586.26999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>2018</v>
@@ -3061,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40720FFB-9A99-7949-8B75-22B8721A2274}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -3076,51 +3254,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>6219</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>122.92</v>
@@ -3138,7 +3316,7 @@
         <v>3118828.5</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <v>2019</v>
@@ -3146,16 +3324,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>5835</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>122.92</v>
@@ -3173,7 +3351,7 @@
         <v>2495904.14</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3">
         <v>2019</v>
@@ -3181,16 +3359,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3208,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>2019</v>
@@ -3216,16 +3394,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -3243,7 +3421,7 @@
         <v>15321.6</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5">
         <v>2019</v>
@@ -3251,16 +3429,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>11291</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>121.67</v>
@@ -3278,7 +3456,7 @@
         <v>7418213.2800000003</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6">
         <v>2019</v>
@@ -3286,16 +3464,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>83.33</v>
@@ -3313,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7">
         <v>2019</v>
@@ -3321,16 +3499,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>24041</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>6.5</v>
@@ -3348,7 +3526,7 @@
         <v>31253300</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K8">
         <v>2019</v>
@@ -3356,16 +3534,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>2316.8000000000002</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>4.5</v>
@@ -3383,7 +3561,7 @@
         <v>2032992</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K9">
         <v>2019</v>
@@ -3391,16 +3569,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>1592</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -3418,7 +3596,7 @@
         <v>179100</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K10">
         <v>2019</v>
@@ -3426,16 +3604,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>145</v>
@@ -3453,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11">
         <v>2019</v>
@@ -3461,16 +3639,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3479,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K12">
         <v>2019</v>
@@ -3490,16 +3668,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>1876</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -3517,7 +3695,7 @@
         <v>3376800</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13">
         <v>2019</v>
@@ -3525,16 +3703,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>457</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -3552,7 +3730,7 @@
         <v>571250</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K14">
         <v>2019</v>
@@ -3560,16 +3738,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3578,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15">
         <v>2019</v>
@@ -3586,16 +3764,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3613,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K16">
         <v>2019</v>
@@ -3621,16 +3799,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>65</v>
@@ -3648,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17">
         <v>2019</v>
@@ -3656,16 +3834,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3683,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K18">
         <v>2019</v>
@@ -3691,16 +3869,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>2750</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>446</v>
@@ -3718,7 +3896,7 @@
         <v>9198750</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K19">
         <v>2019</v>
@@ -3726,16 +3904,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>1.3</v>
@@ -3753,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K20">
         <v>2019</v>
@@ -3761,16 +3939,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <v>3832</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>465</v>
@@ -3788,7 +3966,7 @@
         <v>16036920</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21">
         <v>2019</v>
@@ -3796,16 +3974,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>3179</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -3823,7 +4001,7 @@
         <v>13113375</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K22">
         <v>2019</v>
@@ -3831,16 +4009,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3858,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K23">
         <v>2019</v>
@@ -3866,16 +4044,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>150</v>
@@ -3893,7 +4071,7 @@
         <v>498750</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K24">
         <v>2019</v>
@@ -3901,16 +4079,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>300000</v>
@@ -3928,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K25">
         <v>2019</v>
@@ -3936,16 +4114,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3963,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K26">
         <v>2019</v>
@@ -3971,16 +4149,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>1.25</v>
@@ -3998,7 +4176,7 @@
         <v>300</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K27">
         <v>2019</v>
@@ -4006,16 +4184,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>350</v>
@@ -4033,7 +4211,7 @@
         <v>5950</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K28">
         <v>2019</v>
@@ -4041,16 +4219,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>400</v>
@@ -4068,7 +4246,7 @@
         <v>500</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29">
         <v>2019</v>
@@ -4076,10 +4254,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4088,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K30">
         <v>2019</v>
@@ -4096,10 +4274,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4108,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K31">
         <v>2019</v>
@@ -4116,10 +4294,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4131,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K32">
         <v>2019</v>
@@ -4139,10 +4317,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4154,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K33">
         <v>2019</v>
@@ -4162,16 +4340,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34">
         <v>3526</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>104.48</v>
@@ -4189,7 +4367,7 @@
         <v>1768289</v>
       </c>
       <c r="J34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <v>2019</v>
@@ -4197,16 +4375,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>7015.2</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>104.48</v>
@@ -4224,7 +4402,7 @@
         <v>3000751.8</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K35">
         <v>2019</v>
@@ -4232,16 +4410,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4259,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K36">
         <v>2019</v>
@@ -4267,16 +4445,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>1114</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>127.5</v>
@@ -4294,7 +4472,7 @@
         <v>406387.20000000001</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K37">
         <v>2019</v>
@@ -4302,16 +4480,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>8710.1</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>103.42</v>
@@ -4329,7 +4507,7 @@
         <v>5722535.7000000002</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K38">
         <v>2019</v>
@@ -4337,16 +4515,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>2064</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>70.83</v>
@@ -4364,7 +4542,7 @@
         <v>619200</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K39">
         <v>2019</v>
@@ -4372,16 +4550,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>41534.9</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <v>5.53</v>
@@ -4399,7 +4577,7 @@
         <v>45896064.5</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K40">
         <v>2019</v>
@@ -4407,16 +4585,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>6775.5</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <v>3.83</v>
@@ -4434,7 +4612,7 @@
         <v>5053676.0599999996</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K41">
         <v>2019</v>
@@ -4442,16 +4620,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>42943.33</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>4.25</v>
@@ -4469,7 +4647,7 @@
         <v>4106455.93</v>
       </c>
       <c r="J42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K42">
         <v>2019</v>
@@ -4477,16 +4655,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C43">
         <v>659</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43">
         <v>123.25</v>
@@ -4504,7 +4682,7 @@
         <v>812217.5</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K43">
         <v>2019</v>
@@ -4512,22 +4690,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44">
         <v>247.5</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K44">
         <v>2019</v>
@@ -4535,19 +4713,19 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45">
         <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K45">
         <v>2019</v>
@@ -4555,16 +4733,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E46">
         <v>76.5</v>
@@ -4582,7 +4760,7 @@
         <v>137700</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K46">
         <v>2019</v>
@@ -4590,13 +4768,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K47">
         <v>2019</v>
@@ -4604,16 +4782,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48">
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4625,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>2019</v>
@@ -4633,16 +4811,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K49">
         <v>2019</v>
@@ -4650,13 +4828,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4668,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K50">
         <v>2019</v>
@@ -4676,13 +4854,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4694,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K51">
         <v>2019</v>
@@ -4702,16 +4880,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>1208</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>379.1</v>
@@ -4729,7 +4907,7 @@
         <v>3434646</v>
       </c>
       <c r="J52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K52">
         <v>2019</v>
@@ -4737,16 +4915,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K53">
         <v>2019</v>
@@ -4754,16 +4932,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>7044</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E54">
         <v>395.25</v>
@@ -4781,7 +4959,7 @@
         <v>25057269</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K54">
         <v>2019</v>
@@ -4789,16 +4967,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55">
         <v>2365.1999999999998</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E55">
         <v>425</v>
@@ -4816,7 +4994,7 @@
         <v>8292982.5</v>
       </c>
       <c r="J55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K55">
         <v>2019</v>
@@ -4824,16 +5002,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4851,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K56">
         <v>2019</v>
@@ -4859,16 +5037,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E57">
         <v>350</v>
@@ -4886,7 +5064,7 @@
         <v>6615000</v>
       </c>
       <c r="J57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K57">
         <v>2019</v>
@@ -4894,16 +5072,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58">
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E58">
         <v>35000</v>
@@ -4921,7 +5099,7 @@
         <v>218750</v>
       </c>
       <c r="J58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K58">
         <v>2019</v>
@@ -4929,16 +5107,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K59">
         <v>2019</v>
@@ -4946,16 +5124,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E60">
         <v>400</v>
@@ -4973,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K60">
         <v>2019</v>
@@ -4981,16 +5159,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K61">
         <v>2019</v>
@@ -4998,16 +5176,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K62">
         <v>2019</v>
@@ -5015,10 +5193,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -5030,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K63">
         <v>2019</v>
@@ -5038,10 +5216,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5050,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K64">
         <v>2019</v>
@@ -5058,10 +5236,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5070,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K65">
         <v>2019</v>
@@ -5078,10 +5256,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5090,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K66">
         <v>2019</v>
@@ -5098,16 +5276,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C67">
         <v>7579</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>122.92</v>
@@ -5125,7 +5303,7 @@
         <v>3800868.5</v>
       </c>
       <c r="J67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K67">
         <v>2018</v>
@@ -5133,16 +5311,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68">
         <v>3980</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>122.92</v>
@@ -5160,7 +5338,7 @@
         <v>1702445</v>
       </c>
       <c r="J68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K68">
         <v>2018</v>
@@ -5168,16 +5346,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5195,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K69">
         <v>2018</v>
@@ -5203,16 +5381,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E70">
         <v>150</v>
@@ -5230,7 +5408,7 @@
         <v>40128</v>
       </c>
       <c r="J70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K70">
         <v>2018</v>
@@ -5238,16 +5416,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71">
         <v>10659</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E71">
         <v>121.67</v>
@@ -5265,7 +5443,7 @@
         <v>7002963</v>
       </c>
       <c r="J71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K71">
         <v>2018</v>
@@ -5273,16 +5451,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E72">
         <v>83.33</v>
@@ -5300,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K72">
         <v>2018</v>
@@ -5308,16 +5486,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <v>23843</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E73">
         <v>6.5</v>
@@ -5335,7 +5513,7 @@
         <v>30995900</v>
       </c>
       <c r="J73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K73">
         <v>2018</v>
@@ -5343,16 +5521,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C74">
         <v>1695</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E74">
         <v>4.5</v>
@@ -5370,7 +5548,7 @@
         <v>1487362.5</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K74">
         <v>2018</v>
@@ -5378,16 +5556,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75">
         <v>2136.9</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -5405,7 +5583,7 @@
         <v>240401.25</v>
       </c>
       <c r="J75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K75">
         <v>2018</v>
@@ -5413,16 +5591,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E76">
         <v>145</v>
@@ -5440,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K76">
         <v>2018</v>
@@ -5448,16 +5626,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5466,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K77">
         <v>2018</v>
@@ -5477,16 +5655,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C78">
         <v>2077</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E78">
         <v>90</v>
@@ -5504,7 +5682,7 @@
         <v>3738600</v>
       </c>
       <c r="J78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K78">
         <v>2018</v>
@@ -5512,16 +5690,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79">
         <v>448</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E79">
         <v>2.5</v>
@@ -5539,7 +5717,7 @@
         <v>560000</v>
       </c>
       <c r="J79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K79">
         <v>2018</v>
@@ -5547,16 +5725,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5574,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K80">
         <v>2018</v>
@@ -5582,16 +5760,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5609,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K81">
         <v>2018</v>
@@ -5617,16 +5795,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C82">
         <v>520</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E82">
         <v>65</v>
@@ -5644,7 +5822,7 @@
         <v>3380000</v>
       </c>
       <c r="J82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K82">
         <v>2018</v>
@@ -5652,16 +5830,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5679,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K83">
         <v>2018</v>
@@ -5687,16 +5865,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C84">
         <v>2096</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E84">
         <v>446</v>
@@ -5714,7 +5892,7 @@
         <v>7011120</v>
       </c>
       <c r="J84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K84">
         <v>2018</v>
@@ -5722,16 +5900,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C85">
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <v>1.3</v>
@@ -5749,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K85">
         <v>2018</v>
@@ -5757,16 +5935,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C86">
         <v>3651</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E86">
         <v>465</v>
@@ -5784,7 +5962,7 @@
         <v>15279435</v>
       </c>
       <c r="J86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K86">
         <v>2018</v>
@@ -5792,16 +5970,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C87">
         <v>3697</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -5819,7 +5997,7 @@
         <v>15250125</v>
       </c>
       <c r="J87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K87">
         <v>2018</v>
@@ -5827,16 +6005,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5854,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K88">
         <v>2018</v>
@@ -5862,16 +6040,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89">
         <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E89">
         <v>150</v>
@@ -5889,7 +6067,7 @@
         <v>240000</v>
       </c>
       <c r="J89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K89">
         <v>2018</v>
@@ -5897,16 +6075,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E90">
         <v>350</v>
@@ -5924,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K90">
         <v>2018</v>
@@ -5932,16 +6110,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5959,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K91">
         <v>2018</v>
@@ -5967,16 +6145,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E92">
         <v>1.25</v>
@@ -5994,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K92">
         <v>2018</v>
@@ -6002,16 +6180,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6020,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K93">
         <v>2018</v>
@@ -6028,16 +6206,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>400</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6055,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K94">
         <v>2018</v>
@@ -6063,10 +6241,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -6075,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K95">
         <v>2018</v>
@@ -6083,10 +6261,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -6095,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K96">
         <v>2018</v>
@@ -6103,16 +6281,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C97">
         <v>1461.4</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E97">
         <v>104.48</v>
@@ -6130,7 +6308,7 @@
         <v>732892.1</v>
       </c>
       <c r="J97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K97">
         <v>2018</v>
@@ -6138,16 +6316,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C98">
         <v>8013.2</v>
       </c>
       <c r="D98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <v>104.48</v>
@@ -6165,7 +6343,7 @@
         <v>3427646.3</v>
       </c>
       <c r="J98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K98">
         <v>2018</v>
@@ -6173,16 +6351,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6200,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K99">
         <v>2018</v>
@@ -6208,16 +6386,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C100">
         <v>1011.1</v>
       </c>
       <c r="D100" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>127.5</v>
@@ -6235,7 +6413,7 @@
         <v>368849.28</v>
       </c>
       <c r="J100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K100">
         <v>2018</v>
@@ -6243,16 +6421,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C101">
         <v>12075.5</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E101">
         <v>103.42</v>
@@ -6270,7 +6448,7 @@
         <v>7933603.5</v>
       </c>
       <c r="J101" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K101">
         <v>2018</v>
@@ -6278,16 +6456,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102">
         <v>1379</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E102">
         <v>70.83</v>
@@ -6305,7 +6483,7 @@
         <v>413700</v>
       </c>
       <c r="J102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K102">
         <v>2018</v>
@@ -6313,16 +6491,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C103">
         <v>41628</v>
       </c>
       <c r="D103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E103">
         <v>5.53</v>
@@ -6340,7 +6518,7 @@
         <v>45998940</v>
       </c>
       <c r="J103" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K103">
         <v>2018</v>
@@ -6348,16 +6526,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C104">
         <v>8713.1</v>
       </c>
       <c r="D104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E104">
         <v>3.83</v>
@@ -6375,7 +6553,7 @@
         <v>6498883.46</v>
       </c>
       <c r="J104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K104">
         <v>2018</v>
@@ -6383,16 +6561,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C105">
         <v>39186.53</v>
       </c>
       <c r="D105" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E105">
         <v>4.25</v>
@@ -6410,7 +6588,7 @@
         <v>3747211.93</v>
       </c>
       <c r="J105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K105">
         <v>2018</v>
@@ -6418,16 +6596,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E106">
         <v>123.25</v>
@@ -6445,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K106">
         <v>2018</v>
@@ -6453,16 +6631,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C107">
         <v>300</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -6480,7 +6658,7 @@
         <v>292500</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K107">
         <v>2018</v>
@@ -6488,16 +6666,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C108">
         <v>90</v>
       </c>
       <c r="D108" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E108">
         <v>76.5</v>
@@ -6515,7 +6693,7 @@
         <v>137700</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K108">
         <v>2018</v>
@@ -6523,13 +6701,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K109">
         <v>2018</v>
@@ -6537,16 +6715,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -6558,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K110">
         <v>2018</v>
@@ -6566,10 +6744,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C111">
         <v>90</v>
@@ -6578,7 +6756,7 @@
         <v>137700</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K111">
         <v>2018</v>
@@ -6586,16 +6764,16 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J112" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K112">
         <v>2018</v>
@@ -6603,13 +6781,13 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6621,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K113">
         <v>2018</v>
@@ -6629,13 +6807,13 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6647,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K114">
         <v>2018</v>
@@ -6655,16 +6833,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C115">
         <v>1375</v>
       </c>
       <c r="D115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E115">
         <v>379.1</v>
@@ -6682,7 +6860,7 @@
         <v>3909468.75</v>
       </c>
       <c r="J115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K115">
         <v>2018</v>
@@ -6690,16 +6868,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K116">
         <v>2018</v>
@@ -6707,16 +6885,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C117">
         <v>3568.7</v>
       </c>
       <c r="D117" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E117">
         <v>395.25</v>
@@ -6734,7 +6912,7 @@
         <v>12694758.08</v>
       </c>
       <c r="J117" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K117">
         <v>2018</v>
@@ -6742,16 +6920,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C118">
         <v>781</v>
       </c>
       <c r="D118" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E118">
         <v>425</v>
@@ -6769,7 +6947,7 @@
         <v>2738381.25</v>
       </c>
       <c r="J118" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K118">
         <v>2018</v>
@@ -6777,16 +6955,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C119">
         <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6804,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K119">
         <v>2018</v>
@@ -6812,10 +6990,10 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C120">
         <v>135</v>
@@ -6836,7 +7014,7 @@
         <v>6615000</v>
       </c>
       <c r="J120" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K120">
         <v>2018</v>
@@ -6844,16 +7022,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C121">
         <v>25</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E121">
         <v>35000</v>
@@ -6871,7 +7049,7 @@
         <v>218750</v>
       </c>
       <c r="J121" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K121">
         <v>2018</v>
@@ -6879,16 +7057,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J122" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K122">
         <v>2018</v>
@@ -6896,16 +7074,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C123">
         <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E123">
         <v>400</v>
@@ -6923,7 +7101,7 @@
         <v>298200</v>
       </c>
       <c r="J123" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K123">
         <v>2018</v>
@@ -6931,16 +7109,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D124" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K124">
         <v>2018</v>
@@ -6948,16 +7126,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J125" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K125">
         <v>2018</v>
@@ -6965,10 +7143,10 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -6980,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K126">
         <v>2018</v>
@@ -6988,10 +7166,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7003,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K127">
         <v>2018</v>
@@ -7011,10 +7189,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7026,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K128">
         <v>2018</v>
@@ -7034,10 +7212,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C129">
         <v>10</v>
@@ -7049,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K129">
         <v>2018</v>

--- a/data-raw/crop_reports.xlsx
+++ b/data-raw/crop_reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/klamath/klamathAgData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098AD56A-B141-E141-8C38-C272F466A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D217E9-AC97-A24D-89FC-CA9E6D87FBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25760" yWindow="500" windowWidth="50880" windowHeight="19360" activeTab="1" xr2:uid="{1B09B5AE-9B4E-2540-A0D9-8AF8FCE3095B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13800" activeTab="2" xr2:uid="{1B09B5AE-9B4E-2540-A0D9-8AF8FCE3095B}"/>
   </bookViews>
   <sheets>
     <sheet name="crop_statistics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <sheet name="number_of_farms_and_pop" sheetId="4" r:id="rId5"/>
     <sheet name="crop_production" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">acreage_summary!$A$1:$H$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="153">
   <si>
     <t>Category</t>
   </si>
@@ -424,6 +427,81 @@
   </si>
   <si>
     <t>Seeds</t>
+  </si>
+  <si>
+    <t>ACRES IRRIGATED (LINES 11 + 12)</t>
+  </si>
+  <si>
+    <t>TOTAL AREA IN IRRIGATION ROTATION (CULTIVATION) (LINES 13 + 14)</t>
+  </si>
+  <si>
+    <t>TOTAL AREA NOT IN IRRIGATION ROTATION (LINES 16 + 17)</t>
+  </si>
+  <si>
+    <t>TOTAL IRRIGABLE AREA FOR SERVICE (LINES 15 + 18 + 19)</t>
+  </si>
+  <si>
+    <t>TOTAL IRRIGABLE AREA (LINES 20 + 21)</t>
+  </si>
+  <si>
+    <t>CLASS 6 – TEMPORARILY IRRIGATED</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>GROSS CROP VALUE (FROM LINE 194)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL REVENUE (22-30)</t>
+  </si>
+  <si>
+    <t>FEDERAL FSA PAYMENTS</t>
+  </si>
+  <si>
+    <t>SUGAR PROGRAM</t>
+  </si>
+  <si>
+    <t>TOTAL ADDITIONAL REVENUE (LINES 33 + 34)</t>
+  </si>
+  <si>
+    <t>TOTAL VALUE (GROSS CROP VALUE PLUS ADDITIONAL REVENUE – 31 + 35)</t>
+  </si>
+  <si>
+    <t>TOTAL IRRIGATED ACREAGE (FROM LINE 13)</t>
+  </si>
+  <si>
+    <t>AVERAGE VALUE PER IRRIGATED ACRE (LINE 36 / LINE 37)</t>
+  </si>
+  <si>
+    <t>FULL TIME FARMS (Est.)</t>
+  </si>
+  <si>
+    <t>PART TIME FARMS (Est.)</t>
+  </si>
+  <si>
+    <t>NON-AGRICULTURAL LANDS (ACRES FROM LINE 19)</t>
+  </si>
+  <si>
+    <t>TOTAL (ACRES FROM LINE 20)</t>
+  </si>
+  <si>
+    <t>PEAS GREEN (PROCESSING)</t>
+  </si>
+  <si>
+    <t>POTATOES CHIP</t>
+  </si>
+  <si>
+    <t>POTATOES FRESH</t>
+  </si>
+  <si>
+    <t>PLNT</t>
+  </si>
+  <si>
+    <t>FT²</t>
+  </si>
+  <si>
+    <t>—</t>
   </si>
 </sst>
 </file>
@@ -785,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FFABCD-945A-CA45-A43D-2DF892A32A80}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,8 +876,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2019</v>
+      <c r="B1" t="s">
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1153,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4D91A1-4530-CE45-B4E8-FE55F027DBB1}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,8 +1241,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2019</v>
+      <c r="B1" t="s">
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1306,10 +1384,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEC8B7-4AEA-6C46-8994-85276059A5B6}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2280,7 +2359,7 @@
         <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C43">
         <v>122351.53</v>
@@ -2514,17 +2593,315 @@
         <v>26</v>
       </c>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>63563.03</v>
+      </c>
+      <c r="E54">
+        <v>63563.03</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54">
+        <v>2017</v>
+      </c>
+      <c r="H54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>169.4</v>
+      </c>
+      <c r="E55">
+        <v>169.4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55">
+        <v>2017</v>
+      </c>
+      <c r="H55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56">
+        <v>63732.43</v>
+      </c>
+      <c r="E56">
+        <v>63732.43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56">
+        <v>2017</v>
+      </c>
+      <c r="H56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>973</v>
+      </c>
+      <c r="E57">
+        <v>973</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57">
+        <v>2017</v>
+      </c>
+      <c r="H57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58">
+        <v>64705.43</v>
+      </c>
+      <c r="E58">
+        <v>64705.43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58">
+        <v>2017</v>
+      </c>
+      <c r="H58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59">
+        <v>2017</v>
+      </c>
+      <c r="H59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60">
+        <v>2017</v>
+      </c>
+      <c r="H60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61">
+        <v>2017</v>
+      </c>
+      <c r="H61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>1083</v>
+      </c>
+      <c r="E62">
+        <v>1083</v>
+      </c>
+      <c r="F62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62">
+        <v>2017</v>
+      </c>
+      <c r="H62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63">
+        <v>65788.429999999993</v>
+      </c>
+      <c r="E63">
+        <v>65788.429999999993</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63">
+        <v>2017</v>
+      </c>
+      <c r="H63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64">
+        <v>2017</v>
+      </c>
+      <c r="H64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65">
+        <v>65788.429999999993</v>
+      </c>
+      <c r="E65">
+        <v>65788.429999999993</v>
+      </c>
+      <c r="F65" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65">
+        <v>2017</v>
+      </c>
+      <c r="H65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66">
+        <v>2017</v>
+      </c>
+      <c r="H66" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{2EBEC8B7-4AEA-6C46-8994-85276059A5B6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FBCFAB-AE5E-724C-BAD3-2EBB3920BFDF}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2967,6 +3344,118 @@
         <v>2018</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34">
+        <v>84471546.75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39">
+        <v>84471546.75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40">
+        <v>63732.43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41">
+        <v>1325.41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2974,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C5FAAF-9C42-7146-89CF-CD546F801C8A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3230,6 +3719,62 @@
         <v>2018</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18">
+        <v>290</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20">
+        <v>1083</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21">
+        <v>65788.429999999993</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3237,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40720FFB-9A99-7949-8B75-22B8721A2274}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+      <selection activeCell="N151" sqref="N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7233,6 +7778,1056 @@
         <v>2018</v>
       </c>
     </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130">
+        <v>7039</v>
+      </c>
+      <c r="D130" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130">
+        <v>114.58</v>
+      </c>
+      <c r="F130">
+        <v>806552.08</v>
+      </c>
+      <c r="G130">
+        <v>4.08</v>
+      </c>
+      <c r="H130">
+        <v>467.5</v>
+      </c>
+      <c r="I130">
+        <v>3290732.5</v>
+      </c>
+      <c r="J130" t="s">
+        <v>81</v>
+      </c>
+      <c r="K130">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131">
+        <v>6677.1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131">
+        <v>104.17</v>
+      </c>
+      <c r="F131">
+        <v>695529.17</v>
+      </c>
+      <c r="G131">
+        <v>3.6</v>
+      </c>
+      <c r="H131">
+        <v>375</v>
+      </c>
+      <c r="I131">
+        <v>2503905</v>
+      </c>
+      <c r="J131" t="s">
+        <v>81</v>
+      </c>
+      <c r="K131">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>81</v>
+      </c>
+      <c r="K132">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="D133" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <v>131.25</v>
+      </c>
+      <c r="F133">
+        <v>19512.5</v>
+      </c>
+      <c r="G133">
+        <v>2.56</v>
+      </c>
+      <c r="H133">
+        <v>336</v>
+      </c>
+      <c r="I133">
+        <v>49952</v>
+      </c>
+      <c r="J133" t="s">
+        <v>81</v>
+      </c>
+      <c r="K133">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134">
+        <v>8470.6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134">
+        <v>108.33</v>
+      </c>
+      <c r="F134">
+        <v>917646.53</v>
+      </c>
+      <c r="G134">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H134">
+        <v>552.5</v>
+      </c>
+      <c r="I134">
+        <v>4679997.29</v>
+      </c>
+      <c r="J134" t="s">
+        <v>81</v>
+      </c>
+      <c r="K134">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135">
+        <v>971</v>
+      </c>
+      <c r="D135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135">
+        <v>83.33</v>
+      </c>
+      <c r="F135">
+        <v>80916.67</v>
+      </c>
+      <c r="G135">
+        <v>3.6</v>
+      </c>
+      <c r="H135">
+        <v>300</v>
+      </c>
+      <c r="I135">
+        <v>291300</v>
+      </c>
+      <c r="J135" t="s">
+        <v>81</v>
+      </c>
+      <c r="K135">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136">
+        <v>22304.5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136">
+        <v>6.5</v>
+      </c>
+      <c r="F136">
+        <v>144979.25</v>
+      </c>
+      <c r="G136">
+        <v>170</v>
+      </c>
+      <c r="H136">
+        <v>1105</v>
+      </c>
+      <c r="I136">
+        <v>24646472.5</v>
+      </c>
+      <c r="J136" t="s">
+        <v>81</v>
+      </c>
+      <c r="K136">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137">
+        <v>2630</v>
+      </c>
+      <c r="D137" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137">
+        <v>4.5</v>
+      </c>
+      <c r="F137">
+        <v>11835</v>
+      </c>
+      <c r="G137">
+        <v>184</v>
+      </c>
+      <c r="H137">
+        <v>828</v>
+      </c>
+      <c r="I137">
+        <v>2177640</v>
+      </c>
+      <c r="J137" t="s">
+        <v>81</v>
+      </c>
+      <c r="K137">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>2435</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>12175.08</v>
+      </c>
+      <c r="G138">
+        <v>15</v>
+      </c>
+      <c r="H138">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>182626.13</v>
+      </c>
+      <c r="J138" t="s">
+        <v>81</v>
+      </c>
+      <c r="K138">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139">
+        <v>145</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>10</v>
+      </c>
+      <c r="H139">
+        <v>1450</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>81</v>
+      </c>
+      <c r="K139">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>89</v>
+      </c>
+      <c r="B140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140">
+        <v>30</v>
+      </c>
+      <c r="D140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>81</v>
+      </c>
+      <c r="K140">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141">
+        <v>2209</v>
+      </c>
+      <c r="D141" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141">
+        <v>90</v>
+      </c>
+      <c r="F141">
+        <v>198810</v>
+      </c>
+      <c r="G141">
+        <v>20</v>
+      </c>
+      <c r="H141">
+        <v>1800</v>
+      </c>
+      <c r="I141">
+        <v>3976200</v>
+      </c>
+      <c r="J141" t="s">
+        <v>81</v>
+      </c>
+      <c r="K141">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142">
+        <v>443</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142">
+        <v>2.5</v>
+      </c>
+      <c r="F142">
+        <v>1107.5</v>
+      </c>
+      <c r="G142">
+        <v>500</v>
+      </c>
+      <c r="H142">
+        <v>1250</v>
+      </c>
+      <c r="I142">
+        <v>553750</v>
+      </c>
+      <c r="J142" t="s">
+        <v>81</v>
+      </c>
+      <c r="K142">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>81</v>
+      </c>
+      <c r="K143">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>91</v>
+      </c>
+      <c r="B144" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>67</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>81</v>
+      </c>
+      <c r="K144">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>63</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>81</v>
+      </c>
+      <c r="K145">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>67</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>81</v>
+      </c>
+      <c r="K146">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>91</v>
+      </c>
+      <c r="B147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147">
+        <v>2286.1999999999998</v>
+      </c>
+      <c r="D147" t="s">
+        <v>67</v>
+      </c>
+      <c r="E147">
+        <v>460</v>
+      </c>
+      <c r="F147">
+        <v>1051644.33</v>
+      </c>
+      <c r="G147">
+        <v>7</v>
+      </c>
+      <c r="H147">
+        <v>3220</v>
+      </c>
+      <c r="I147">
+        <v>7361510.3300000001</v>
+      </c>
+      <c r="J147" t="s">
+        <v>81</v>
+      </c>
+      <c r="K147">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>91</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>81</v>
+      </c>
+      <c r="K148">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>3683</v>
+      </c>
+      <c r="D149" t="s">
+        <v>67</v>
+      </c>
+      <c r="E149">
+        <v>520</v>
+      </c>
+      <c r="F149">
+        <v>1915160</v>
+      </c>
+      <c r="G149">
+        <v>8.6</v>
+      </c>
+      <c r="H149">
+        <v>4472</v>
+      </c>
+      <c r="I149">
+        <v>16470376</v>
+      </c>
+      <c r="J149" t="s">
+        <v>81</v>
+      </c>
+      <c r="K149">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>4020</v>
+      </c>
+      <c r="D150" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150">
+        <v>463</v>
+      </c>
+      <c r="F150">
+        <v>1861260</v>
+      </c>
+      <c r="G150">
+        <v>9.75</v>
+      </c>
+      <c r="H150">
+        <v>4514.25</v>
+      </c>
+      <c r="I150">
+        <v>18147285</v>
+      </c>
+      <c r="J150" t="s">
+        <v>81</v>
+      </c>
+      <c r="K150">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>81</v>
+      </c>
+      <c r="K151">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" t="s">
+        <v>75</v>
+      </c>
+      <c r="C152">
+        <v>30</v>
+      </c>
+      <c r="D152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E152">
+        <v>140</v>
+      </c>
+      <c r="F152">
+        <v>4200</v>
+      </c>
+      <c r="G152">
+        <v>20</v>
+      </c>
+      <c r="H152">
+        <v>2800</v>
+      </c>
+      <c r="I152">
+        <v>84000</v>
+      </c>
+      <c r="J152" t="s">
+        <v>81</v>
+      </c>
+      <c r="K152">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>150</v>
+      </c>
+      <c r="E153">
+        <v>300000</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H153">
+        <v>24900</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>81</v>
+      </c>
+      <c r="K153">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>93</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0.3</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>81</v>
+      </c>
+      <c r="K154">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>102</v>
+      </c>
+      <c r="B155" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155">
+        <v>186</v>
+      </c>
+      <c r="D155" t="s">
+        <v>55</v>
+      </c>
+      <c r="E155">
+        <v>1.25</v>
+      </c>
+      <c r="F155">
+        <v>232.5</v>
+      </c>
+      <c r="G155">
+        <v>240</v>
+      </c>
+      <c r="H155">
+        <v>300</v>
+      </c>
+      <c r="I155">
+        <v>55800</v>
+      </c>
+      <c r="J155" t="s">
+        <v>81</v>
+      </c>
+      <c r="K155">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>67</v>
+      </c>
+      <c r="E156">
+        <v>350</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>17</v>
+      </c>
+      <c r="H156">
+        <v>5950</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>81</v>
+      </c>
+      <c r="K156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>102</v>
+      </c>
+      <c r="B157" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E157">
+        <v>400</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>1.25</v>
+      </c>
+      <c r="H157">
+        <v>500</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>81</v>
+      </c>
+      <c r="K157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>103</v>
+      </c>
+      <c r="B158" t="s">
+        <v>124</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>81</v>
+      </c>
+      <c r="K158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>103</v>
+      </c>
+      <c r="B159" t="s">
+        <v>100</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>152</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159" t="s">
+        <v>81</v>
+      </c>
+      <c r="K159">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
